--- a/2020/May/All Details/30.05.2020/MC Bank Statement May 2020.xlsx
+++ b/2020/May/All Details/30.05.2020/MC Bank Statement May 2020.xlsx
@@ -1618,7 +1618,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1630,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1653,14 +1653,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3201,7 +3201,7 @@
   <dimension ref="A1:AL222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3477,7 +3477,9 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="67"/>
-      <c r="H7" s="92"/>
+      <c r="H7" s="92">
+        <v>3213038</v>
+      </c>
       <c r="I7" s="93"/>
       <c r="J7" s="93"/>
       <c r="K7" s="93"/>
@@ -3525,7 +3527,9 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="67"/>
-      <c r="H8" s="59"/>
+      <c r="H8" s="59">
+        <v>3210566</v>
+      </c>
       <c r="I8" s="93"/>
       <c r="J8" s="93"/>
       <c r="K8" s="93"/>
@@ -3575,7 +3579,10 @@
       <c r="G9" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9">
+        <f>H7-H8</f>
+        <v>2472</v>
+      </c>
       <c r="I9" s="93"/>
       <c r="J9" s="93"/>
       <c r="K9" s="93"/>
